--- a/ACNHCreatures/DataTable.xlsx
+++ b/ACNHCreatures/DataTable.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dboze\Documents\LocalRepo-Web\ACNH\Blazor-Animal-Crossing\ACNHCreatures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897CA45-D11F-4026-A0FB-269A4CD641A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A678D581-5B1B-42C0-AD4D-3A70EBAB6030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{5F849A1F-89BC-41B3-B0BD-3B08F8B4A582}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{5F849A1F-89BC-41B3-B0BD-3B08F8B4A582}"/>
   </bookViews>
   <sheets>
     <sheet name="FishNorthern" sheetId="1" r:id="rId1"/>
     <sheet name="FishSouthern" sheetId="2" r:id="rId2"/>
+    <sheet name="Bugs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="361">
   <si>
     <t>Bitterling</t>
   </si>
@@ -634,6 +635,492 @@
   </si>
   <si>
     <t>Zebra turkeyfish.png</t>
+  </si>
+  <si>
+    <t>Common butterfly</t>
+  </si>
+  <si>
+    <t> 160 Bells</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Any except rain</t>
+  </si>
+  <si>
+    <t>4 AM – 7 PM</t>
+  </si>
+  <si>
+    <t>Yellow butterfly</t>
+  </si>
+  <si>
+    <t>4 AM – 7 PM</t>
+  </si>
+  <si>
+    <t>Tiger butterfly</t>
+  </si>
+  <si>
+    <t> 240 Bells</t>
+  </si>
+  <si>
+    <t>Peacock butterfly</t>
+  </si>
+  <si>
+    <t> 2,500 Bells</t>
+  </si>
+  <si>
+    <t>Flying near blue, purple, and black flowers</t>
+  </si>
+  <si>
+    <t>Common bluebottle</t>
+  </si>
+  <si>
+    <t> 300 Bells</t>
+  </si>
+  <si>
+    <t>Paper kite butterfly</t>
+  </si>
+  <si>
+    <t> 1,000 Bells</t>
+  </si>
+  <si>
+    <t>Flying near flowers</t>
+  </si>
+  <si>
+    <t>8 AM – 7 PM</t>
+  </si>
+  <si>
+    <t>Great purple emperor</t>
+  </si>
+  <si>
+    <t> 3,000 Bells</t>
+  </si>
+  <si>
+    <t>Monarch butterfly</t>
+  </si>
+  <si>
+    <t> 140 Bells</t>
+  </si>
+  <si>
+    <t>4 AM – 5 PM</t>
+  </si>
+  <si>
+    <t>Emperor butterfly</t>
+  </si>
+  <si>
+    <t> 4,000 Bells</t>
+  </si>
+  <si>
+    <t>5 PM – 8 AM</t>
+  </si>
+  <si>
+    <t>Agrias butterfly</t>
+  </si>
+  <si>
+    <t>8 AM – 5 PM</t>
+  </si>
+  <si>
+    <t>Rajah Brooke's birdwing</t>
+  </si>
+  <si>
+    <t>Queen Alexandra's birdwing</t>
+  </si>
+  <si>
+    <t>8 AM – 4 PM</t>
+  </si>
+  <si>
+    <t>Moth</t>
+  </si>
+  <si>
+    <t> 130 Bells</t>
+  </si>
+  <si>
+    <t>Flying near light sources</t>
+  </si>
+  <si>
+    <t>7 PM – 4 AM</t>
+  </si>
+  <si>
+    <t>Atlas moth</t>
+  </si>
+  <si>
+    <t>On trees (any kind)</t>
+  </si>
+  <si>
+    <t>Any weather</t>
+  </si>
+  <si>
+    <t>Madagascan sunset moth</t>
+  </si>
+  <si>
+    <t>Long locust</t>
+  </si>
+  <si>
+    <t> 200 Bells</t>
+  </si>
+  <si>
+    <t>On the ground</t>
+  </si>
+  <si>
+    <t>Migratory locust</t>
+  </si>
+  <si>
+    <t> 600 Bells</t>
+  </si>
+  <si>
+    <t>Rice grasshopper</t>
+  </si>
+  <si>
+    <t> 400 Bells</t>
+  </si>
+  <si>
+    <t>Grasshopper</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>Bell cricket</t>
+  </si>
+  <si>
+    <t> 430 Bells</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>On flowers</t>
+  </si>
+  <si>
+    <t>Orchid mantis</t>
+  </si>
+  <si>
+    <t> 2,400 Bells</t>
+  </si>
+  <si>
+    <t>On white flowers</t>
+  </si>
+  <si>
+    <t>Honeybee</t>
+  </si>
+  <si>
+    <t>Wasp</t>
+  </si>
+  <si>
+    <t>Shaking non-fruit hardwood trees or cedar trees</t>
+  </si>
+  <si>
+    <t>All day</t>
+  </si>
+  <si>
+    <t>Brown cicada</t>
+  </si>
+  <si>
+    <t> 250 Bells</t>
+  </si>
+  <si>
+    <t>On trees (hardwood and cedar)</t>
+  </si>
+  <si>
+    <t>Robust cicada</t>
+  </si>
+  <si>
+    <t>Giant cicada</t>
+  </si>
+  <si>
+    <t> 500 Bells</t>
+  </si>
+  <si>
+    <t>Walker cicada</t>
+  </si>
+  <si>
+    <t>Evening cicada</t>
+  </si>
+  <si>
+    <t> 550 Bells</t>
+  </si>
+  <si>
+    <t>4 AM – 8 AM &amp; 4 PM – 7 PM</t>
+  </si>
+  <si>
+    <t>Cicada shell</t>
+  </si>
+  <si>
+    <t> 10 Bells</t>
+  </si>
+  <si>
+    <t>Red dragonfly</t>
+  </si>
+  <si>
+    <t> 180 Bells</t>
+  </si>
+  <si>
+    <t>Flying near water</t>
+  </si>
+  <si>
+    <t>Darner dragonfly</t>
+  </si>
+  <si>
+    <t> 230 Bells</t>
+  </si>
+  <si>
+    <t>Banded dragonfly</t>
+  </si>
+  <si>
+    <t> 4,500 Bells</t>
+  </si>
+  <si>
+    <t>Damselfly</t>
+  </si>
+  <si>
+    <t>Firefly</t>
+  </si>
+  <si>
+    <t>Mole cricket</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>Pondskater</t>
+  </si>
+  <si>
+    <t>On rivers and ponds</t>
+  </si>
+  <si>
+    <t>Diving beetle</t>
+  </si>
+  <si>
+    <t> 800 Bells</t>
+  </si>
+  <si>
+    <t>Giant water bug</t>
+  </si>
+  <si>
+    <t> 2,000 Bells</t>
+  </si>
+  <si>
+    <t>7 PM – 8 AM</t>
+  </si>
+  <si>
+    <t>Stinkbug</t>
+  </si>
+  <si>
+    <t> 120 Bells</t>
+  </si>
+  <si>
+    <t>Man-faced stink bug</t>
+  </si>
+  <si>
+    <t>Ladybug</t>
+  </si>
+  <si>
+    <t>Tiger beetle</t>
+  </si>
+  <si>
+    <t> 1,500 Bells</t>
+  </si>
+  <si>
+    <t>Jewel Beetle</t>
+  </si>
+  <si>
+    <t>On tree stumps</t>
+  </si>
+  <si>
+    <t>Violin Beetle</t>
+  </si>
+  <si>
+    <t> 450 Bells</t>
+  </si>
+  <si>
+    <t>Citrus long-horned beetle</t>
+  </si>
+  <si>
+    <t> 350 Bells</t>
+  </si>
+  <si>
+    <t>Rosalia Batesi Beetle</t>
+  </si>
+  <si>
+    <t>Blue weevil beetle</t>
+  </si>
+  <si>
+    <t>On palm trees</t>
+  </si>
+  <si>
+    <t>Dung beetle</t>
+  </si>
+  <si>
+    <t>Pushing snowballs</t>
+  </si>
+  <si>
+    <t>Earth-boring dung beetle</t>
+  </si>
+  <si>
+    <t>Scarab Beetle</t>
+  </si>
+  <si>
+    <t> 10,000 Bells</t>
+  </si>
+  <si>
+    <t>11 PM – 8 AM</t>
+  </si>
+  <si>
+    <t>Drone beetle</t>
+  </si>
+  <si>
+    <t>Goliath Beetle</t>
+  </si>
+  <si>
+    <t> 8,000 Bells</t>
+  </si>
+  <si>
+    <t>Saw Stag</t>
+  </si>
+  <si>
+    <t>Miyama Stag</t>
+  </si>
+  <si>
+    <t>Giant stag</t>
+  </si>
+  <si>
+    <t>Rainbow Stag</t>
+  </si>
+  <si>
+    <t> 6,000 Bells</t>
+  </si>
+  <si>
+    <t>Cyclommatus stag</t>
+  </si>
+  <si>
+    <t>Golden Stag</t>
+  </si>
+  <si>
+    <t> 12,000 Bells</t>
+  </si>
+  <si>
+    <t>Giraffe Stag</t>
+  </si>
+  <si>
+    <t>Horned Dynastid</t>
+  </si>
+  <si>
+    <t> 1,350 Bells</t>
+  </si>
+  <si>
+    <t>Horned Atlas</t>
+  </si>
+  <si>
+    <t>Horned Elephant</t>
+  </si>
+  <si>
+    <t>Horned Hercules</t>
+  </si>
+  <si>
+    <t>Walking Stick</t>
+  </si>
+  <si>
+    <t>4 AM – 8 AM &amp; 5 PM – 7 PM</t>
+  </si>
+  <si>
+    <t>Walking Leaf</t>
+  </si>
+  <si>
+    <t>Disguised under trees</t>
+  </si>
+  <si>
+    <t>Bagworm</t>
+  </si>
+  <si>
+    <t>Shaking trees (hardwood and cedar)</t>
+  </si>
+  <si>
+    <t>Ant</t>
+  </si>
+  <si>
+    <t> 80 Bells</t>
+  </si>
+  <si>
+    <t>On spoiled turnips/candy/lollipops</t>
+  </si>
+  <si>
+    <t>Hermit Crab</t>
+  </si>
+  <si>
+    <t>Disguised on shoreline</t>
+  </si>
+  <si>
+    <t>Wharf roach</t>
+  </si>
+  <si>
+    <t>On beach rocks</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t> 60 Bells</t>
+  </si>
+  <si>
+    <t>Flying near trash or rotten turnips</t>
+  </si>
+  <si>
+    <t>Mosquito</t>
+  </si>
+  <si>
+    <t>5 PM – 4 AM</t>
+  </si>
+  <si>
+    <t>Flea</t>
+  </si>
+  <si>
+    <t> 70 Bells</t>
+  </si>
+  <si>
+    <t>On villagers</t>
+  </si>
+  <si>
+    <t>Snail</t>
+  </si>
+  <si>
+    <t>On rocks and bushes</t>
+  </si>
+  <si>
+    <t>Rain only</t>
+  </si>
+  <si>
+    <t>Pill Bug</t>
+  </si>
+  <si>
+    <t>From hitting rocks</t>
+  </si>
+  <si>
+    <t>11 PM – 4 PM</t>
+  </si>
+  <si>
+    <t>Centipede</t>
+  </si>
+  <si>
+    <t>4 PM – 11 PM</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Shaking trees</t>
+  </si>
+  <si>
+    <t>Tarantula</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>Sell Price</t>
+  </si>
+  <si>
+    <t>Weather</t>
   </si>
 </sst>
 </file>
@@ -642,7 +1129,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -681,11 +1168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1015,8 +1501,8 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -1046,10 +1532,10 @@
       <c r="H1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1084,10 +1570,10 @@
       <c r="H2" s="2">
         <v>0.875</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>114</v>
       </c>
       <c r="K2" s="1">
@@ -1122,10 +1608,10 @@
       <c r="H3" s="2">
         <v>0.375</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>112</v>
       </c>
       <c r="K3" s="1">
@@ -1160,10 +1646,10 @@
       <c r="H4" s="2">
         <v>0.375</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>111</v>
       </c>
       <c r="K4" s="1">
@@ -1198,10 +1684,10 @@
       <c r="H5" s="2">
         <v>0.375</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="1">
@@ -1236,10 +1722,10 @@
       <c r="H6" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>113</v>
       </c>
       <c r="K6" s="1">
@@ -1274,10 +1760,10 @@
       <c r="H7" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>114</v>
       </c>
       <c r="K7" s="1">
@@ -1312,10 +1798,10 @@
       <c r="H8" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="1">
@@ -1350,10 +1836,10 @@
       <c r="H9" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" t="s">
         <v>103</v>
       </c>
       <c r="K9" s="1">
@@ -1388,10 +1874,10 @@
       <c r="H10" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" t="s">
         <v>114</v>
       </c>
       <c r="K10" s="1">
@@ -1426,10 +1912,10 @@
       <c r="H11" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>105</v>
       </c>
       <c r="K11" s="1">
@@ -1464,10 +1950,10 @@
       <c r="H12" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="s">
         <v>113</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>106</v>
       </c>
       <c r="K12" s="1">
@@ -1502,10 +1988,10 @@
       <c r="H13" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>111</v>
       </c>
       <c r="K13" s="1">
@@ -1540,10 +2026,10 @@
       <c r="H14" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>114</v>
       </c>
       <c r="K14" s="1">
@@ -1578,10 +2064,10 @@
       <c r="H15" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>111</v>
       </c>
       <c r="K15" s="1">
@@ -1616,10 +2102,10 @@
       <c r="H16" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" t="s">
         <v>114</v>
       </c>
       <c r="K16" s="1">
@@ -1654,10 +2140,10 @@
       <c r="H17" s="2">
         <v>0.375</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" t="s">
         <v>112</v>
       </c>
       <c r="K17" s="1">
@@ -1692,10 +2178,10 @@
       <c r="H18" s="2">
         <v>0.375</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" t="s">
         <v>108</v>
       </c>
       <c r="K18" s="1">
@@ -1730,10 +2216,10 @@
       <c r="H19" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>111</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" t="s">
         <v>113</v>
       </c>
       <c r="K19" s="1">
@@ -1768,10 +2254,10 @@
       <c r="H20" s="2">
         <v>0.375</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" t="s">
         <v>108</v>
       </c>
       <c r="K20" s="1">
@@ -1806,10 +2292,10 @@
       <c r="H21" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" t="s">
         <v>113</v>
       </c>
       <c r="K21" s="1">
@@ -1844,10 +2330,10 @@
       <c r="H22" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" t="s">
         <v>111</v>
       </c>
       <c r="K22" s="1">
@@ -1882,10 +2368,10 @@
       <c r="H23" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
         <v>104</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" t="s">
         <v>114</v>
       </c>
       <c r="K23" s="1">
@@ -1920,10 +2406,10 @@
       <c r="H24" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" t="s">
         <v>111</v>
       </c>
       <c r="K24" s="1">
@@ -1958,10 +2444,10 @@
       <c r="H25" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" t="s">
         <v>114</v>
       </c>
       <c r="K25" s="1">
@@ -1996,10 +2482,10 @@
       <c r="H26" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" t="s">
         <v>112</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" t="s">
         <v>106</v>
       </c>
       <c r="K26" s="1">
@@ -2034,10 +2520,10 @@
       <c r="H27" s="2">
         <v>0.375</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" t="s">
         <v>104</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" t="s">
         <v>114</v>
       </c>
       <c r="K27" s="1">
@@ -2072,10 +2558,10 @@
       <c r="H28" s="2">
         <v>0.875</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" t="s">
         <v>111</v>
       </c>
       <c r="K28" s="1">
@@ -2110,10 +2596,10 @@
       <c r="H29" s="2">
         <v>0.375</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" t="s">
         <v>103</v>
       </c>
       <c r="K29" s="1">
@@ -2148,10 +2634,10 @@
       <c r="H30" s="2">
         <v>0.375</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" t="s">
         <v>104</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" t="s">
         <v>114</v>
       </c>
       <c r="K30" s="1">
@@ -2186,10 +2672,10 @@
       <c r="H31" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" t="s">
         <v>107</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" t="s">
         <v>110</v>
       </c>
       <c r="K31" s="1">
@@ -2224,10 +2710,10 @@
       <c r="H32" s="2">
         <v>0.375</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" t="s">
         <v>111</v>
       </c>
       <c r="K32" s="1">
@@ -2262,10 +2748,10 @@
       <c r="H33" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" t="s">
         <v>110</v>
       </c>
       <c r="K33" s="1">
@@ -2300,10 +2786,10 @@
       <c r="H34" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" t="s">
         <v>107</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" t="s">
         <v>112</v>
       </c>
       <c r="K34" s="1">
@@ -2338,10 +2824,10 @@
       <c r="H35" s="2">
         <v>0.375</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" t="s">
         <v>107</v>
       </c>
       <c r="K35" s="1">
@@ -2376,10 +2862,10 @@
       <c r="H36" s="2">
         <v>0.375</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" t="s">
         <v>113</v>
       </c>
       <c r="K36" s="1">
@@ -2414,10 +2900,10 @@
       <c r="H37" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" t="s">
         <v>104</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" t="s">
         <v>114</v>
       </c>
       <c r="K37" s="1">
@@ -2452,10 +2938,10 @@
       <c r="H38" s="2">
         <v>0.375</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" t="s">
         <v>108</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" t="s">
         <v>111</v>
       </c>
       <c r="K38" s="1">
@@ -2490,10 +2976,10 @@
       <c r="H39" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" t="s">
         <v>106</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" t="s">
         <v>113</v>
       </c>
       <c r="K39" s="1">
@@ -2528,10 +3014,10 @@
       <c r="H40" s="2">
         <v>0.375</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" t="s">
         <v>108</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" t="s">
         <v>111</v>
       </c>
       <c r="K40" s="1">
@@ -2566,10 +3052,10 @@
       <c r="H41" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" t="s">
         <v>104</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" t="s">
         <v>114</v>
       </c>
       <c r="K41" s="1">
@@ -2604,10 +3090,10 @@
       <c r="H42" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" t="s">
         <v>106</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" t="s">
         <v>110</v>
       </c>
       <c r="K42" s="1">
@@ -2642,10 +3128,10 @@
       <c r="H43" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" t="s">
         <v>111</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" t="s">
         <v>111</v>
       </c>
       <c r="K43" s="1">
@@ -2680,10 +3166,10 @@
       <c r="H44" s="2">
         <v>0.375</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" t="s">
         <v>104</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" t="s">
         <v>114</v>
       </c>
       <c r="K44" s="1">
@@ -2718,10 +3204,10 @@
       <c r="H45" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" t="s">
         <v>103</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" t="s">
         <v>107</v>
       </c>
       <c r="K45" s="1">
@@ -2756,10 +3242,10 @@
       <c r="H46" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" t="s">
         <v>107</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" t="s">
         <v>112</v>
       </c>
       <c r="K46" s="1">
@@ -2794,10 +3280,10 @@
       <c r="H47" s="2">
         <v>0.375</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" t="s">
         <v>111</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" t="s">
         <v>113</v>
       </c>
       <c r="K47" s="1">
@@ -2832,10 +3318,10 @@
       <c r="H48" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" t="s">
         <v>110</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" t="s">
         <v>112</v>
       </c>
       <c r="K48" s="1">
@@ -2870,10 +3356,10 @@
       <c r="H49" s="2">
         <v>0.875</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" t="s">
         <v>109</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" t="s">
         <v>110</v>
       </c>
       <c r="K49" s="1">
@@ -2908,10 +3394,10 @@
       <c r="H50" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" t="s">
         <v>106</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" t="s">
         <v>113</v>
       </c>
       <c r="K50" s="1">
@@ -2946,10 +3432,10 @@
       <c r="H51" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" t="s">
         <v>107</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" t="s">
         <v>111</v>
       </c>
       <c r="K51" s="1">
@@ -2984,10 +3470,10 @@
       <c r="H52" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" t="s">
         <v>114</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" t="s">
         <v>107</v>
       </c>
       <c r="K52" s="1">
@@ -3022,10 +3508,10 @@
       <c r="H53" s="2">
         <v>0.875</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" t="s">
         <v>109</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" t="s">
         <v>111</v>
       </c>
       <c r="K53" s="1">
@@ -3060,10 +3546,10 @@
       <c r="H54" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" t="s">
         <v>104</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" t="s">
         <v>114</v>
       </c>
       <c r="K54" s="1">
@@ -3098,10 +3584,10 @@
       <c r="H55" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" t="s">
         <v>104</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" t="s">
         <v>114</v>
       </c>
       <c r="K55" s="1">
@@ -3136,10 +3622,10 @@
       <c r="H56" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" t="s">
         <v>111</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" t="s">
         <v>114</v>
       </c>
       <c r="K56" s="1">
@@ -3174,10 +3660,10 @@
       <c r="H57" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" t="s">
         <v>108</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" t="s">
         <v>111</v>
       </c>
       <c r="K57" s="1">
@@ -3212,10 +3698,10 @@
       <c r="H58" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" t="s">
         <v>108</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" t="s">
         <v>111</v>
       </c>
       <c r="K58" s="1">
@@ -3250,10 +3736,10 @@
       <c r="H59" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" t="s">
         <v>114</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" t="s">
         <v>105</v>
       </c>
       <c r="K59" s="1">
@@ -3288,10 +3774,10 @@
       <c r="H60" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" t="s">
         <v>104</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" t="s">
         <v>114</v>
       </c>
       <c r="K60" s="1">
@@ -3326,10 +3812,10 @@
       <c r="H61" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" t="s">
         <v>109</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" t="s">
         <v>111</v>
       </c>
       <c r="K61" s="1">
@@ -3364,10 +3850,10 @@
       <c r="H62" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" t="s">
         <v>107</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" t="s">
         <v>112</v>
       </c>
       <c r="K62" s="1">
@@ -3402,10 +3888,10 @@
       <c r="H63" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" t="s">
         <v>104</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" t="s">
         <v>114</v>
       </c>
       <c r="K63" s="1">
@@ -3440,10 +3926,10 @@
       <c r="H64" s="2">
         <v>0.875</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" t="s">
         <v>110</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" t="s">
         <v>113</v>
       </c>
       <c r="K64" s="1">
@@ -3478,10 +3964,10 @@
       <c r="H65" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" t="s">
         <v>104</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" t="s">
         <v>114</v>
       </c>
       <c r="K65" s="1">
@@ -3516,10 +4002,10 @@
       <c r="H66" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" t="s">
         <v>112</v>
       </c>
       <c r="K66" s="1">
@@ -3554,10 +4040,10 @@
       <c r="H67" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" t="s">
         <v>108</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" t="s">
         <v>111</v>
       </c>
       <c r="K67" s="1">
@@ -3592,10 +4078,10 @@
       <c r="H68" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" t="s">
         <v>111</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" t="s">
         <v>111</v>
       </c>
       <c r="K68" s="1">
@@ -3630,10 +4116,10 @@
       <c r="H69" s="2">
         <v>0.375</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" t="s">
         <v>108</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" t="s">
         <v>111</v>
       </c>
       <c r="K69" s="1">
@@ -3668,10 +4154,10 @@
       <c r="H70" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" t="s">
         <v>104</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" t="s">
         <v>114</v>
       </c>
       <c r="K70" s="1">
@@ -3706,10 +4192,10 @@
       <c r="H71" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" t="s">
         <v>114</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" t="s">
         <v>103</v>
       </c>
       <c r="K71" s="1">
@@ -3744,10 +4230,10 @@
       <c r="H72" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" t="s">
         <v>106</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" t="s">
         <v>113</v>
       </c>
       <c r="K72" s="1">
@@ -3782,10 +4268,10 @@
       <c r="H73" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" t="s">
         <v>106</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" t="s">
         <v>112</v>
       </c>
       <c r="K73" s="1">
@@ -3820,10 +4306,10 @@
       <c r="H74" s="2">
         <v>0.375</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" t="s">
         <v>110</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" t="s">
         <v>111</v>
       </c>
       <c r="K74" s="1">
@@ -3858,10 +4344,10 @@
       <c r="H75" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" t="s">
         <v>114</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" t="s">
         <v>110</v>
       </c>
       <c r="K75" s="1">
@@ -3896,10 +4382,10 @@
       <c r="H76" s="2">
         <v>0.375</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" t="s">
         <v>114</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" t="s">
         <v>103</v>
       </c>
       <c r="K76" s="1">
@@ -3934,10 +4420,10 @@
       <c r="H77" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" t="s">
         <v>111</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" t="s">
         <v>103</v>
       </c>
       <c r="K77" s="1">
@@ -3972,10 +4458,10 @@
       <c r="H78" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" t="s">
         <v>108</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" t="s">
         <v>111</v>
       </c>
       <c r="K78" s="1">
@@ -4010,10 +4496,10 @@
       <c r="H79" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" t="s">
         <v>106</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" t="s">
         <v>111</v>
       </c>
       <c r="K79" s="1">
@@ -4048,10 +4534,10 @@
       <c r="H80" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I80" t="s">
         <v>109</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" t="s">
         <v>111</v>
       </c>
       <c r="K80" s="1">
@@ -4086,10 +4572,10 @@
       <c r="H81" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" t="s">
         <v>103</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" t="s">
         <v>109</v>
       </c>
       <c r="K81" s="1">
@@ -4124,10 +4610,10 @@
       <c r="H82" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I82" t="s">
         <v>108</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" t="s">
         <v>112</v>
       </c>
       <c r="K82" s="1">
@@ -4162,10 +4648,10 @@
       <c r="H83" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" t="s">
         <v>113</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" t="s">
         <v>106</v>
       </c>
       <c r="K83" s="1">
@@ -4200,10 +4686,10 @@
       <c r="H84" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" t="s">
         <v>108</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" t="s">
         <v>111</v>
       </c>
       <c r="K84" s="1">
@@ -4238,10 +4724,10 @@
       <c r="H85" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" t="s">
         <v>112</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" t="s">
         <v>103</v>
       </c>
       <c r="K85" s="1">
@@ -4276,10 +4762,10 @@
       <c r="H86" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" t="s">
         <v>106</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" t="s">
         <v>113</v>
       </c>
       <c r="K86" s="1">
@@ -4302,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0107A1DD-F82A-43E4-857B-F84F6E5948A9}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,8 +4802,8 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -4347,10 +4833,10 @@
       <c r="H1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -4385,10 +4871,10 @@
       <c r="H2" s="2">
         <v>0.875</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>114</v>
       </c>
       <c r="K2" s="1">
@@ -4423,10 +4909,10 @@
       <c r="H3" s="2">
         <v>0.375</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>106</v>
       </c>
       <c r="K3" s="1">
@@ -4461,10 +4947,10 @@
       <c r="H4" s="2">
         <v>0.375</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>103</v>
       </c>
       <c r="K4" s="1">
@@ -4499,10 +4985,10 @@
       <c r="H5" s="2">
         <v>0.375</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>103</v>
       </c>
       <c r="K5" s="1">
@@ -4537,10 +5023,10 @@
       <c r="H6" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>107</v>
       </c>
       <c r="K6" s="1">
@@ -4575,10 +5061,10 @@
       <c r="H7" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>114</v>
       </c>
       <c r="K7" s="1">
@@ -4613,10 +5099,10 @@
       <c r="H8" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>106</v>
       </c>
       <c r="K8" s="1">
@@ -4651,10 +5137,10 @@
       <c r="H9" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" t="s">
         <v>111</v>
       </c>
       <c r="K9" s="1">
@@ -4689,10 +5175,10 @@
       <c r="H10" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" t="s">
         <v>114</v>
       </c>
       <c r="K10" s="1">
@@ -4727,10 +5213,10 @@
       <c r="H11" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>110</v>
       </c>
       <c r="K11" s="1">
@@ -4765,10 +5251,10 @@
       <c r="H12" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>103</v>
       </c>
       <c r="K12" s="1">
@@ -4803,10 +5289,10 @@
       <c r="H13" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>112</v>
       </c>
       <c r="K13" s="1">
@@ -4841,10 +5327,10 @@
       <c r="H14" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>114</v>
       </c>
       <c r="K14" s="1">
@@ -4879,10 +5365,10 @@
       <c r="H15" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>103</v>
       </c>
       <c r="K15" s="1">
@@ -4917,10 +5403,10 @@
       <c r="H16" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" t="s">
         <v>114</v>
       </c>
       <c r="K16" s="1">
@@ -4955,10 +5441,10 @@
       <c r="H17" s="2">
         <v>0.375</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" t="s">
         <v>106</v>
       </c>
       <c r="K17" s="1">
@@ -4993,10 +5479,10 @@
       <c r="H18" s="2">
         <v>0.375</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" t="s">
         <v>114</v>
       </c>
       <c r="K18" s="1">
@@ -5031,10 +5517,10 @@
       <c r="H19" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" t="s">
         <v>107</v>
       </c>
       <c r="K19" s="1">
@@ -5069,10 +5555,10 @@
       <c r="H20" s="2">
         <v>0.375</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>111</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" t="s">
         <v>114</v>
       </c>
       <c r="K20" s="1">
@@ -5107,10 +5593,10 @@
       <c r="H21" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" t="s">
         <v>107</v>
       </c>
       <c r="K21" s="1">
@@ -5145,10 +5631,10 @@
       <c r="H22" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" t="s">
         <v>103</v>
       </c>
       <c r="K22" s="1">
@@ -5183,10 +5669,10 @@
       <c r="H23" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
         <v>104</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" t="s">
         <v>114</v>
       </c>
       <c r="K23" s="1">
@@ -5221,10 +5707,10 @@
       <c r="H24" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" t="s">
         <v>103</v>
       </c>
       <c r="K24" s="1">
@@ -5259,10 +5745,10 @@
       <c r="H25" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" t="s">
         <v>114</v>
       </c>
       <c r="K25" s="1">
@@ -5297,10 +5783,10 @@
       <c r="H26" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" t="s">
         <v>112</v>
       </c>
       <c r="K26" s="1">
@@ -5335,10 +5821,10 @@
       <c r="H27" s="2">
         <v>0.375</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" t="s">
         <v>104</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" t="s">
         <v>114</v>
       </c>
       <c r="K27" s="1">
@@ -5373,10 +5859,10 @@
       <c r="H28" s="2">
         <v>0.875</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" t="s">
         <v>114</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" t="s">
         <v>103</v>
       </c>
       <c r="K28" s="1">
@@ -5411,10 +5897,10 @@
       <c r="H29" s="2">
         <v>0.375</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" t="s">
         <v>111</v>
       </c>
       <c r="K29" s="1">
@@ -5449,10 +5935,10 @@
       <c r="H30" s="2">
         <v>0.375</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" t="s">
         <v>104</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" t="s">
         <v>114</v>
       </c>
       <c r="K30" s="1">
@@ -5487,10 +5973,10 @@
       <c r="H31" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" t="s">
         <v>113</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" t="s">
         <v>105</v>
       </c>
       <c r="K31" s="1">
@@ -5525,10 +6011,10 @@
       <c r="H32" s="2">
         <v>0.375</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" t="s">
         <v>103</v>
       </c>
       <c r="K32" s="1">
@@ -5563,10 +6049,10 @@
       <c r="H33" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" t="s">
         <v>105</v>
       </c>
       <c r="K33" s="1">
@@ -5601,10 +6087,10 @@
       <c r="H34" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" t="s">
         <v>113</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" t="s">
         <v>106</v>
       </c>
       <c r="K34" s="1">
@@ -5639,10 +6125,10 @@
       <c r="H35" s="2">
         <v>0.375</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" t="s">
         <v>111</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" t="s">
         <v>113</v>
       </c>
       <c r="K35" s="1">
@@ -5677,10 +6163,10 @@
       <c r="H36" s="2">
         <v>0.375</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" t="s">
         <v>103</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" t="s">
         <v>107</v>
       </c>
       <c r="K36" s="1">
@@ -5715,10 +6201,10 @@
       <c r="H37" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" t="s">
         <v>104</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" t="s">
         <v>114</v>
       </c>
       <c r="K37" s="1">
@@ -5753,10 +6239,10 @@
       <c r="H38" s="2">
         <v>0.375</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" t="s">
         <v>114</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" t="s">
         <v>103</v>
       </c>
       <c r="K38" s="1">
@@ -5791,10 +6277,10 @@
       <c r="H39" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" t="s">
         <v>112</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" t="s">
         <v>107</v>
       </c>
       <c r="K39" s="1">
@@ -5829,10 +6315,10 @@
       <c r="H40" s="2">
         <v>0.375</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" t="s">
         <v>114</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" t="s">
         <v>103</v>
       </c>
       <c r="K40" s="1">
@@ -5867,10 +6353,10 @@
       <c r="H41" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" t="s">
         <v>104</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" t="s">
         <v>114</v>
       </c>
       <c r="K41" s="1">
@@ -5905,10 +6391,10 @@
       <c r="H42" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" t="s">
         <v>112</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" t="s">
         <v>105</v>
       </c>
       <c r="K42" s="1">
@@ -5943,10 +6429,10 @@
       <c r="H43" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" t="s">
         <v>103</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" t="s">
         <v>103</v>
       </c>
       <c r="K43" s="1">
@@ -5981,10 +6467,10 @@
       <c r="H44" s="2">
         <v>0.375</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" t="s">
         <v>104</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" t="s">
         <v>114</v>
       </c>
       <c r="K44" s="1">
@@ -6019,10 +6505,10 @@
       <c r="H45" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" t="s">
         <v>111</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" t="s">
         <v>113</v>
       </c>
       <c r="K45" s="1">
@@ -6057,10 +6543,10 @@
       <c r="H46" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" t="s">
         <v>113</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" t="s">
         <v>106</v>
       </c>
       <c r="K46" s="1">
@@ -6095,10 +6581,10 @@
       <c r="H47" s="2">
         <v>0.375</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" t="s">
         <v>103</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" t="s">
         <v>107</v>
       </c>
       <c r="K47" s="1">
@@ -6133,10 +6619,10 @@
       <c r="H48" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" t="s">
         <v>105</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" t="s">
         <v>106</v>
       </c>
       <c r="K48" s="1">
@@ -6171,10 +6657,10 @@
       <c r="H49" s="2">
         <v>0.875</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" t="s">
         <v>104</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" t="s">
         <v>105</v>
       </c>
       <c r="K49" s="1">
@@ -6209,10 +6695,10 @@
       <c r="H50" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" t="s">
         <v>112</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" t="s">
         <v>107</v>
       </c>
       <c r="K50" s="1">
@@ -6247,10 +6733,10 @@
       <c r="H51" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" t="s">
         <v>113</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" t="s">
         <v>103</v>
       </c>
       <c r="K51" s="1">
@@ -6285,10 +6771,10 @@
       <c r="H52" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" t="s">
         <v>108</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" t="s">
         <v>113</v>
       </c>
       <c r="K52" s="1">
@@ -6323,10 +6809,10 @@
       <c r="H53" s="2">
         <v>0.875</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" t="s">
         <v>104</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" t="s">
         <v>103</v>
       </c>
       <c r="K53" s="1">
@@ -6361,10 +6847,10 @@
       <c r="H54" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" t="s">
         <v>104</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" t="s">
         <v>114</v>
       </c>
       <c r="K54" s="1">
@@ -6399,10 +6885,10 @@
       <c r="H55" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" t="s">
         <v>104</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" t="s">
         <v>114</v>
       </c>
       <c r="K55" s="1">
@@ -6437,10 +6923,10 @@
       <c r="H56" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" t="s">
         <v>103</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" t="s">
         <v>108</v>
       </c>
       <c r="K56" s="1">
@@ -6475,10 +6961,10 @@
       <c r="H57" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" t="s">
         <v>114</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" t="s">
         <v>103</v>
       </c>
       <c r="K57" s="1">
@@ -6513,10 +6999,10 @@
       <c r="H58" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" t="s">
         <v>114</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" t="s">
         <v>103</v>
       </c>
       <c r="K58" s="1">
@@ -6551,10 +7037,10 @@
       <c r="H59" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" t="s">
         <v>108</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" t="s">
         <v>110</v>
       </c>
       <c r="K59" s="1">
@@ -6589,10 +7075,10 @@
       <c r="H60" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" t="s">
         <v>104</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" t="s">
         <v>114</v>
       </c>
       <c r="K60" s="1">
@@ -6627,10 +7113,10 @@
       <c r="H61" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" t="s">
         <v>104</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" t="s">
         <v>103</v>
       </c>
       <c r="K61" s="1">
@@ -6665,10 +7151,10 @@
       <c r="H62" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" t="s">
         <v>113</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" t="s">
         <v>106</v>
       </c>
       <c r="K62" s="1">
@@ -6703,10 +7189,10 @@
       <c r="H63" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" t="s">
         <v>104</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" t="s">
         <v>114</v>
       </c>
       <c r="K63" s="1">
@@ -6741,10 +7227,10 @@
       <c r="H64" s="2">
         <v>0.875</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" t="s">
         <v>105</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" t="s">
         <v>107</v>
       </c>
       <c r="K64" s="1">
@@ -6779,10 +7265,10 @@
       <c r="H65" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" t="s">
         <v>104</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" t="s">
         <v>114</v>
       </c>
       <c r="K65" s="1">
@@ -6817,10 +7303,10 @@
       <c r="H66" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" t="s">
         <v>114</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" t="s">
         <v>106</v>
       </c>
       <c r="K66" s="1">
@@ -6855,10 +7341,10 @@
       <c r="H67" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" t="s">
         <v>114</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" t="s">
         <v>103</v>
       </c>
       <c r="K67" s="1">
@@ -6893,10 +7379,10 @@
       <c r="H68" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" t="s">
         <v>103</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" t="s">
         <v>103</v>
       </c>
       <c r="K68" s="1">
@@ -6931,10 +7417,10 @@
       <c r="H69" s="2">
         <v>0.375</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" t="s">
         <v>114</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" t="s">
         <v>103</v>
       </c>
       <c r="K69" s="1">
@@ -6969,10 +7455,10 @@
       <c r="H70" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" t="s">
         <v>104</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" t="s">
         <v>114</v>
       </c>
       <c r="K70" s="1">
@@ -7007,10 +7493,10 @@
       <c r="H71" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" t="s">
         <v>108</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" t="s">
         <v>111</v>
       </c>
       <c r="K71" s="1">
@@ -7045,10 +7531,10 @@
       <c r="H72" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" t="s">
         <v>112</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" t="s">
         <v>107</v>
       </c>
       <c r="K72" s="1">
@@ -7083,10 +7569,10 @@
       <c r="H73" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" t="s">
         <v>112</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" t="s">
         <v>106</v>
       </c>
       <c r="K73" s="1">
@@ -7121,10 +7607,10 @@
       <c r="H74" s="2">
         <v>0.375</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" t="s">
         <v>105</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" t="s">
         <v>103</v>
       </c>
       <c r="K74" s="1">
@@ -7159,10 +7645,10 @@
       <c r="H75" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" t="s">
         <v>108</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" t="s">
         <v>105</v>
       </c>
       <c r="K75" s="1">
@@ -7197,10 +7683,10 @@
       <c r="H76" s="2">
         <v>0.375</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" t="s">
         <v>108</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" t="s">
         <v>111</v>
       </c>
       <c r="K76" s="1">
@@ -7235,10 +7721,10 @@
       <c r="H77" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" t="s">
         <v>103</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" t="s">
         <v>111</v>
       </c>
       <c r="K77" s="1">
@@ -7273,10 +7759,10 @@
       <c r="H78" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" t="s">
         <v>114</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" t="s">
         <v>103</v>
       </c>
       <c r="K78" s="1">
@@ -7311,10 +7797,10 @@
       <c r="H79" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" t="s">
         <v>112</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" t="s">
         <v>103</v>
       </c>
       <c r="K79" s="1">
@@ -7349,10 +7835,10 @@
       <c r="H80" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I80" t="s">
         <v>104</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" t="s">
         <v>103</v>
       </c>
       <c r="K80" s="1">
@@ -7387,10 +7873,10 @@
       <c r="H81" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" t="s">
         <v>111</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" t="s">
         <v>104</v>
       </c>
       <c r="K81" s="1">
@@ -7425,10 +7911,10 @@
       <c r="H82" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I82" t="s">
         <v>114</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" t="s">
         <v>106</v>
       </c>
       <c r="K82" s="1">
@@ -7463,10 +7949,10 @@
       <c r="H83" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" t="s">
         <v>107</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" t="s">
         <v>112</v>
       </c>
       <c r="K83" s="1">
@@ -7501,10 +7987,10 @@
       <c r="H84" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" t="s">
         <v>114</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" t="s">
         <v>103</v>
       </c>
       <c r="K84" s="1">
@@ -7539,10 +8025,10 @@
       <c r="H85" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" t="s">
         <v>106</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" t="s">
         <v>111</v>
       </c>
       <c r="K85" s="1">
@@ -7577,10 +8063,10 @@
       <c r="H86" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" t="s">
         <v>112</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" t="s">
         <v>107</v>
       </c>
       <c r="K86" s="1">
@@ -7594,4 +8080,1651 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB13D7E-E51B-4A45-985B-994BB5D7AEB0}">
+  <dimension ref="B1:K81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" t="s">
+        <v>257</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" t="s">
+        <v>257</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" t="s">
+        <v>267</v>
+      </c>
+      <c r="K24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" t="s">
+        <v>346</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" t="s">
+        <v>341</v>
+      </c>
+      <c r="F27" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>308</v>
+      </c>
+      <c r="K29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" t="s">
+        <v>282</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>310</v>
+      </c>
+      <c r="D33" t="s">
+        <v>311</v>
+      </c>
+      <c r="E33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" t="s">
+        <v>336</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" t="s">
+        <v>311</v>
+      </c>
+      <c r="E38" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>321</v>
+      </c>
+      <c r="D39" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D40" t="s">
+        <v>311</v>
+      </c>
+      <c r="E40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>294</v>
+      </c>
+      <c r="D42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" t="s">
+        <v>226</v>
+      </c>
+      <c r="K43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" t="s">
+        <v>240</v>
+      </c>
+      <c r="F44" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+      <c r="K44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" t="s">
+        <v>229</v>
+      </c>
+      <c r="K45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" t="s">
+        <v>287</v>
+      </c>
+      <c r="K46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" t="s">
+        <v>226</v>
+      </c>
+      <c r="K47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" t="s">
+        <v>216</v>
+      </c>
+      <c r="K48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" t="s">
+        <v>257</v>
+      </c>
+      <c r="K49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E50" t="s">
+        <v>280</v>
+      </c>
+      <c r="F50" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" t="s">
+        <v>221</v>
+      </c>
+      <c r="K51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" t="s">
+        <v>343</v>
+      </c>
+      <c r="K52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" t="s">
+        <v>233</v>
+      </c>
+      <c r="K53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="D54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E54" t="s">
+        <v>253</v>
+      </c>
+      <c r="F54" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" t="s">
+        <v>226</v>
+      </c>
+      <c r="K54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" t="s">
+        <v>203</v>
+      </c>
+      <c r="K56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>350</v>
+      </c>
+      <c r="D57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" t="s">
+        <v>351</v>
+      </c>
+      <c r="F57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" t="s">
+        <v>352</v>
+      </c>
+      <c r="K57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" t="s">
+        <v>216</v>
+      </c>
+      <c r="K58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" t="s">
+        <v>215</v>
+      </c>
+      <c r="F59" t="s">
+        <v>202</v>
+      </c>
+      <c r="G59" t="s">
+        <v>229</v>
+      </c>
+      <c r="K59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>315</v>
+      </c>
+      <c r="D60" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" t="s">
+        <v>236</v>
+      </c>
+      <c r="G60" t="s">
+        <v>287</v>
+      </c>
+      <c r="K60" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" t="s">
+        <v>202</v>
+      </c>
+      <c r="G61" t="s">
+        <v>226</v>
+      </c>
+      <c r="K61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" t="s">
+        <v>272</v>
+      </c>
+      <c r="F62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" t="s">
+        <v>216</v>
+      </c>
+      <c r="K62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>243</v>
+      </c>
+      <c r="D63" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" t="s">
+        <v>216</v>
+      </c>
+      <c r="K63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64" t="s">
+        <v>236</v>
+      </c>
+      <c r="G64" t="s">
+        <v>226</v>
+      </c>
+      <c r="K64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>300</v>
+      </c>
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" t="s">
+        <v>295</v>
+      </c>
+      <c r="F65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" t="s">
+        <v>257</v>
+      </c>
+      <c r="K65" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>312</v>
+      </c>
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" t="s">
+        <v>236</v>
+      </c>
+      <c r="G66" t="s">
+        <v>257</v>
+      </c>
+      <c r="K66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>306</v>
+      </c>
+      <c r="D67" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" t="s">
+        <v>308</v>
+      </c>
+      <c r="K67" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68" t="s">
+        <v>236</v>
+      </c>
+      <c r="G68" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" t="s">
+        <v>259</v>
+      </c>
+      <c r="E69" t="s">
+        <v>348</v>
+      </c>
+      <c r="F69" t="s">
+        <v>349</v>
+      </c>
+      <c r="G69" t="s">
+        <v>257</v>
+      </c>
+      <c r="K69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>355</v>
+      </c>
+      <c r="D70" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" t="s">
+        <v>356</v>
+      </c>
+      <c r="F70" t="s">
+        <v>236</v>
+      </c>
+      <c r="G70" t="s">
+        <v>287</v>
+      </c>
+      <c r="K70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" t="s">
+        <v>289</v>
+      </c>
+      <c r="E71" t="s">
+        <v>250</v>
+      </c>
+      <c r="F71" t="s">
+        <v>202</v>
+      </c>
+      <c r="G71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>357</v>
+      </c>
+      <c r="D72" t="s">
+        <v>311</v>
+      </c>
+      <c r="E72" t="s">
+        <v>240</v>
+      </c>
+      <c r="F72" t="s">
+        <v>236</v>
+      </c>
+      <c r="G72" t="s">
+        <v>233</v>
+      </c>
+      <c r="K72" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>292</v>
+      </c>
+      <c r="D73" t="s">
+        <v>293</v>
+      </c>
+      <c r="E73" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" t="s">
+        <v>202</v>
+      </c>
+      <c r="G73" t="s">
+        <v>257</v>
+      </c>
+      <c r="K73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" t="s">
+        <v>203</v>
+      </c>
+      <c r="K74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" t="s">
+        <v>202</v>
+      </c>
+      <c r="G75" t="s">
+        <v>257</v>
+      </c>
+      <c r="K75" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" t="s">
+        <v>260</v>
+      </c>
+      <c r="F76" t="s">
+        <v>236</v>
+      </c>
+      <c r="G76" t="s">
+        <v>226</v>
+      </c>
+      <c r="K76" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F77" t="s">
+        <v>236</v>
+      </c>
+      <c r="G77" t="s">
+        <v>257</v>
+      </c>
+      <c r="K77" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>326</v>
+      </c>
+      <c r="D78" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" t="s">
+        <v>236</v>
+      </c>
+      <c r="G78" t="s">
+        <v>327</v>
+      </c>
+      <c r="K78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" t="s">
+        <v>256</v>
+      </c>
+      <c r="F79" t="s">
+        <v>236</v>
+      </c>
+      <c r="G79" t="s">
+        <v>257</v>
+      </c>
+      <c r="K79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" t="s">
+        <v>338</v>
+      </c>
+      <c r="F80" t="s">
+        <v>236</v>
+      </c>
+      <c r="G80" t="s">
+        <v>257</v>
+      </c>
+      <c r="K80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" t="s">
+        <v>202</v>
+      </c>
+      <c r="G81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I241">
+    <sortCondition ref="B2:B241"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ACNHCreatures/DataTable.xlsx
+++ b/ACNHCreatures/DataTable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dboze\Documents\LocalRepo-Web\ACNH\Blazor-Animal-Crossing\ACNHCreatures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089FB60A-4CDC-4461-B4EF-F8375340D27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA3111-5D69-4EFE-8A24-E90817C2BF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5F849A1F-89BC-41B3-B0BD-3B08F8B4A582}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F849A1F-89BC-41B3-B0BD-3B08F8B4A582}"/>
   </bookViews>
   <sheets>
     <sheet name="FishData" sheetId="1" r:id="rId1"/>
     <sheet name="BugData" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Creatures" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="461">
   <si>
     <t>Bitterling</t>
   </si>
@@ -1301,9 +1301,6 @@
   </si>
   <si>
     <t>Venus' flower basket</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>Abalone.PNG</t>
@@ -1790,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2B141-9642-44AF-90BA-427DCB5132DC}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5610,11 +5607,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB13D7E-E51B-4A45-985B-994BB5D7AEB0}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5632,9 +5627,22 @@
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -5678,7 +5686,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5810,7 +5818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5854,7 +5862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5898,7 +5906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5942,7 +5950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5986,7 +5994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6030,7 +6038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6118,7 +6126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6162,7 +6170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6205,8 +6213,9 @@
       <c r="N13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6249,8 +6258,9 @@
       <c r="N14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6293,8 +6303,9 @@
       <c r="N15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6337,6 +6348,7 @@
       <c r="N16">
         <v>2</v>
       </c>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -9518,7 +9530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE14734E-27F3-48E2-9980-3758863A4796}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9535,11 +9547,17 @@
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>421</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>88</v>
@@ -9586,7 +9604,7 @@
         <v>396</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -9627,7 +9645,7 @@
         <v>408</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3">
         <v>600</v>
@@ -9668,7 +9686,7 @@
         <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D4">
         <v>1800</v>
@@ -9709,7 +9727,7 @@
         <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5">
         <v>1800</v>
@@ -9750,7 +9768,7 @@
         <v>405</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D6">
         <v>1900</v>
@@ -9791,7 +9809,7 @@
         <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D7">
         <v>1400</v>
@@ -9832,7 +9850,7 @@
         <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8">
         <v>700</v>
@@ -9873,7 +9891,7 @@
         <v>404</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9">
         <v>2200</v>
@@ -9914,7 +9932,7 @@
         <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D10">
         <v>12000</v>
@@ -9955,7 +9973,7 @@
         <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D11">
         <v>12000</v>
@@ -9996,7 +10014,7 @@
         <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D12">
         <v>15000</v>
@@ -10037,7 +10055,7 @@
         <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D13">
         <v>2500</v>
@@ -10078,7 +10096,7 @@
         <v>414</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D14">
         <v>4500</v>
@@ -10119,7 +10137,7 @@
         <v>414</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D15">
         <v>4500</v>
@@ -10160,7 +10178,7 @@
         <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D16">
         <v>2500</v>
@@ -10201,7 +10219,7 @@
         <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D17">
         <v>600</v>
@@ -10242,7 +10260,7 @@
         <v>391</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D18">
         <v>1500</v>
@@ -10283,7 +10301,7 @@
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D19">
         <v>1200</v>
@@ -10324,7 +10342,7 @@
         <v>392</v>
       </c>
       <c r="C20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D20">
         <v>1100</v>
@@ -10365,7 +10383,7 @@
         <v>390</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D21">
         <v>2800</v>
@@ -10406,7 +10424,7 @@
         <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D22">
         <v>8000</v>
@@ -10447,7 +10465,7 @@
         <v>393</v>
       </c>
       <c r="C23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D23">
         <v>1200</v>
@@ -10488,7 +10506,7 @@
         <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D24">
         <v>500</v>
@@ -10529,7 +10547,7 @@
         <v>382</v>
       </c>
       <c r="C25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D25">
         <v>500</v>
@@ -10570,7 +10588,7 @@
         <v>381</v>
       </c>
       <c r="C26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D26">
         <v>900</v>
@@ -10611,7 +10629,7 @@
         <v>383</v>
       </c>
       <c r="C27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D27">
         <v>10000</v>
@@ -10652,7 +10670,7 @@
         <v>417</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D28">
         <v>1500</v>
@@ -10693,7 +10711,7 @@
         <v>389</v>
       </c>
       <c r="C29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D29">
         <v>600</v>
@@ -10734,7 +10752,7 @@
         <v>384</v>
       </c>
       <c r="C30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D30">
         <v>500</v>
@@ -10775,7 +10793,7 @@
         <v>385</v>
       </c>
       <c r="C31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D31">
         <v>1700</v>
@@ -10816,7 +10834,7 @@
         <v>380</v>
       </c>
       <c r="C32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D32">
         <v>600</v>
@@ -10857,7 +10875,7 @@
         <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D33">
         <v>2000</v>
@@ -10898,7 +10916,7 @@
         <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D34">
         <v>6000</v>
@@ -10939,7 +10957,7 @@
         <v>409</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D35">
         <v>12000</v>
@@ -10980,7 +10998,7 @@
         <v>413</v>
       </c>
       <c r="C36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D36">
         <v>5000</v>
@@ -11021,7 +11039,7 @@
         <v>418</v>
       </c>
       <c r="C37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D37">
         <v>1100</v>
@@ -11062,7 +11080,7 @@
         <v>411</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D38">
         <v>1400</v>
@@ -11103,7 +11121,7 @@
         <v>410</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D39">
         <v>3000</v>
@@ -11144,7 +11162,7 @@
         <v>395</v>
       </c>
       <c r="C40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D40">
         <v>1000</v>
@@ -11185,7 +11203,7 @@
         <v>395</v>
       </c>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D41">
         <v>1000</v>
@@ -11226,7 +11244,7 @@
         <v>401</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D42">
         <v>6000</v>
@@ -11267,7 +11285,7 @@
         <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D43">
         <v>6000</v>
@@ -11308,7 +11326,7 @@
         <v>402</v>
       </c>
       <c r="C44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D44">
         <v>10000</v>
@@ -11349,7 +11367,7 @@
         <v>420</v>
       </c>
       <c r="C45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D45">
         <v>5000</v>
@@ -11390,7 +11408,7 @@
         <v>394</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D46">
         <v>1000</v>
